--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="H2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="I2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="J2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.389838666666667</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N2">
-        <v>10.169516</v>
+        <v>18.680109</v>
       </c>
       <c r="O2">
-        <v>0.03393930434450847</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P2">
-        <v>0.03393930434450847</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q2">
-        <v>62.31363132371069</v>
+        <v>140.072243159933</v>
       </c>
       <c r="R2">
-        <v>560.8226819133961</v>
+        <v>1260.650188439397</v>
       </c>
       <c r="S2">
-        <v>0.002165381437931705</v>
+        <v>0.004985073872577576</v>
       </c>
       <c r="T2">
-        <v>0.002165381437931705</v>
+        <v>0.004985073872577576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="H3">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="I3">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="J3">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>253.51133</v>
       </c>
       <c r="O3">
-        <v>0.8460577852132902</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P3">
-        <v>0.8460577852132902</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q3">
-        <v>1553.388730988137</v>
+        <v>1900.947187168877</v>
       </c>
       <c r="R3">
-        <v>13980.49857889323</v>
+        <v>17108.52468451989</v>
       </c>
       <c r="S3">
-        <v>0.05397982837013864</v>
+        <v>0.06765339043714315</v>
       </c>
       <c r="T3">
-        <v>0.05397982837013864</v>
+        <v>0.06765339043714315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="H4">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="I4">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="J4">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1070423333333334</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N4">
-        <v>0.3211270000000001</v>
+        <v>6.342281</v>
       </c>
       <c r="O4">
-        <v>0.001071715407718418</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P4">
-        <v>0.001071715407718417</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q4">
-        <v>1.967703230526334</v>
+        <v>47.55740592416367</v>
       </c>
       <c r="R4">
-        <v>17.709329074737</v>
+        <v>428.016653317473</v>
       </c>
       <c r="S4">
-        <v>6.837714253251528E-05</v>
+        <v>0.001692535054567678</v>
       </c>
       <c r="T4">
-        <v>6.837714253251526E-05</v>
+        <v>0.001692535054567678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="H5">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="I5">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="J5">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.878781</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N5">
-        <v>35.636343</v>
+        <v>31.258876</v>
       </c>
       <c r="O5">
-        <v>0.1189311950344828</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P5">
-        <v>0.1189311950344828</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q5">
-        <v>218.361418520537</v>
+        <v>234.3937543393453</v>
       </c>
       <c r="R5">
-        <v>1965.252766684833</v>
+        <v>2109.543789054108</v>
       </c>
       <c r="S5">
-        <v>0.007587998843599579</v>
+        <v>0.008341910961747719</v>
       </c>
       <c r="T5">
-        <v>0.007587998843599579</v>
+        <v>0.008341910961747719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.64333833333333</v>
+        <v>22.495411</v>
       </c>
       <c r="H6">
-        <v>247.930015</v>
+        <v>67.486233</v>
       </c>
       <c r="I6">
-        <v>0.2868370808239535</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="J6">
-        <v>0.2868370808239535</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.389838666666667</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N6">
-        <v>10.169516</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O6">
-        <v>0.03393930434450847</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P6">
-        <v>0.03393930434450847</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q6">
-        <v>280.1475838247489</v>
+        <v>7.039841392335666</v>
       </c>
       <c r="R6">
-        <v>2521.32825442274</v>
+        <v>63.358572531021</v>
       </c>
       <c r="S6">
-        <v>0.009735050983374531</v>
+        <v>0.0002505430669226348</v>
       </c>
       <c r="T6">
-        <v>0.009735050983374531</v>
+        <v>0.0002505430669226348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H7">
         <v>247.930015</v>
       </c>
       <c r="I7">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="J7">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.50377666666667</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N7">
-        <v>253.51133</v>
+        <v>18.680109</v>
       </c>
       <c r="O7">
-        <v>0.8460577852132902</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P7">
-        <v>0.8460577852132902</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q7">
-        <v>6983.674205507772</v>
+        <v>514.5955227301816</v>
       </c>
       <c r="R7">
-        <v>62853.06784956995</v>
+        <v>4631.359704571635</v>
       </c>
       <c r="S7">
-        <v>0.2426807453189596</v>
+        <v>0.01831409733603395</v>
       </c>
       <c r="T7">
-        <v>0.2426807453189596</v>
+        <v>0.01831409733603395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H8">
         <v>247.930015</v>
       </c>
       <c r="I8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="J8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1070423333333334</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N8">
-        <v>0.3211270000000001</v>
+        <v>253.51133</v>
       </c>
       <c r="O8">
-        <v>0.001071715407718418</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P8">
-        <v>0.001071715407718417</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q8">
-        <v>8.846335769656113</v>
+        <v>6983.674205507771</v>
       </c>
       <c r="R8">
-        <v>79.61702192690501</v>
+        <v>62853.06784956995</v>
       </c>
       <c r="S8">
-        <v>0.000307407719024004</v>
+        <v>0.2485441157440474</v>
       </c>
       <c r="T8">
-        <v>0.000307407719024004</v>
+        <v>0.2485441157440474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H9">
         <v>247.930015</v>
       </c>
       <c r="I9">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="J9">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.878781</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N9">
-        <v>35.636343</v>
+        <v>6.342281</v>
       </c>
       <c r="O9">
-        <v>0.1189311950344828</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P9">
-        <v>0.1189311950344828</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q9">
-        <v>981.7021171705716</v>
+        <v>174.7157581626905</v>
       </c>
       <c r="R9">
-        <v>8835.319054535144</v>
+        <v>1572.441823464215</v>
       </c>
       <c r="S9">
-        <v>0.03411387680259532</v>
+        <v>0.006218012516226683</v>
       </c>
       <c r="T9">
-        <v>0.03411387680259532</v>
+        <v>0.006218012516226682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.25099666666667</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H10">
-        <v>273.75299</v>
+        <v>247.930015</v>
       </c>
       <c r="I10">
-        <v>0.3167123936907313</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="J10">
-        <v>0.3167123936907314</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.389838666666667</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N10">
-        <v>10.169516</v>
+        <v>31.258876</v>
       </c>
       <c r="O10">
-        <v>0.03393930434450847</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P10">
-        <v>0.03393930434450847</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q10">
-        <v>309.3261568725378</v>
+        <v>861.1126217292377</v>
       </c>
       <c r="R10">
-        <v>2783.93541185284</v>
+        <v>7750.013595563139</v>
       </c>
       <c r="S10">
-        <v>0.01074899831914751</v>
+        <v>0.0306464002795174</v>
       </c>
       <c r="T10">
-        <v>0.01074899831914752</v>
+        <v>0.0306464002795174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.25099666666667</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H11">
-        <v>273.75299</v>
+        <v>247.930015</v>
       </c>
       <c r="I11">
-        <v>0.3167123936907313</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="J11">
-        <v>0.3167123936907314</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.50377666666667</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N11">
-        <v>253.51133</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O11">
-        <v>0.8460577852132902</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P11">
-        <v>0.8460577852132902</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q11">
-        <v>7711.053842930744</v>
+        <v>25.86287461028388</v>
       </c>
       <c r="R11">
-        <v>69399.48458637671</v>
+        <v>232.765871492555</v>
       </c>
       <c r="S11">
-        <v>0.2679569863555798</v>
+        <v>0.0009204417490642103</v>
       </c>
       <c r="T11">
-        <v>0.2679569863555799</v>
+        <v>0.0009204417490642103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="H12">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="I12">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="J12">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1070423333333334</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N12">
-        <v>0.3211270000000001</v>
+        <v>18.680109</v>
       </c>
       <c r="O12">
-        <v>0.001071715407718418</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P12">
-        <v>0.001071715407718417</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q12">
-        <v>9.767719602192223</v>
+        <v>493.939846913695</v>
       </c>
       <c r="R12">
-        <v>87.90947641973001</v>
+        <v>4445.458622223255</v>
       </c>
       <c r="S12">
-        <v>0.0003394255521337381</v>
+        <v>0.01757897617633616</v>
       </c>
       <c r="T12">
-        <v>0.0003394255521337381</v>
+        <v>0.01757897617633616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="H13">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="I13">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="J13">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.878781</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N13">
-        <v>35.636343</v>
+        <v>253.51133</v>
       </c>
       <c r="O13">
-        <v>0.1189311950344828</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P13">
-        <v>0.1189311950344828</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q13">
-        <v>1083.950605435063</v>
+        <v>6703.352080605482</v>
       </c>
       <c r="R13">
-        <v>9755.555448915569</v>
+        <v>60330.16872544934</v>
       </c>
       <c r="S13">
-        <v>0.03766698346387027</v>
+        <v>0.2385676459650902</v>
       </c>
       <c r="T13">
-        <v>0.03766698346387028</v>
+        <v>0.2385676459650902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.55416966666666</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="H14">
-        <v>43.66250899999999</v>
+        <v>237.978195</v>
       </c>
       <c r="I14">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="J14">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.389838666666667</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N14">
-        <v>10.169516</v>
+        <v>6.342281</v>
       </c>
       <c r="O14">
-        <v>0.03393930434450847</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P14">
-        <v>0.03393930434450847</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q14">
-        <v>49.33628709729378</v>
+        <v>167.7027316180883</v>
       </c>
       <c r="R14">
-        <v>444.026583875644</v>
+        <v>1509.324584562795</v>
       </c>
       <c r="S14">
-        <v>0.001714422318641207</v>
+        <v>0.005968423771115548</v>
       </c>
       <c r="T14">
-        <v>0.001714422318641207</v>
+        <v>0.005968423771115547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.55416966666666</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="H15">
-        <v>43.66250899999999</v>
+        <v>237.978195</v>
       </c>
       <c r="I15">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="J15">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.50377666666667</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N15">
-        <v>253.51133</v>
+        <v>31.258876</v>
       </c>
       <c r="O15">
-        <v>0.8460577852132902</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P15">
-        <v>0.8460577852132902</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q15">
-        <v>1229.882303080774</v>
+        <v>826.5478764676466</v>
       </c>
       <c r="R15">
-        <v>11068.94072772697</v>
+        <v>7438.930888208819</v>
       </c>
       <c r="S15">
-        <v>0.04273806955812019</v>
+        <v>0.02941626499626133</v>
       </c>
       <c r="T15">
-        <v>0.04273806955812019</v>
+        <v>0.02941626499626133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.55416966666666</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="H16">
-        <v>43.66250899999999</v>
+        <v>237.978195</v>
       </c>
       <c r="I16">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="J16">
-        <v>0.05051436238169709</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1070423333333334</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N16">
-        <v>0.3211270000000001</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O16">
-        <v>0.001071715407718418</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P16">
-        <v>0.001071715407718417</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q16">
-        <v>1.557912280849222</v>
+        <v>24.82474829546832</v>
       </c>
       <c r="R16">
-        <v>14.021210527643</v>
+        <v>223.422734659215</v>
       </c>
       <c r="S16">
-        <v>5.413702047553639E-05</v>
+        <v>0.0008834955543601437</v>
       </c>
       <c r="T16">
-        <v>5.413702047553639E-05</v>
+        <v>0.0008834955543601437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="H17">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="I17">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="J17">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.878781</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N17">
-        <v>35.636343</v>
+        <v>18.680109</v>
       </c>
       <c r="O17">
-        <v>0.1189311950344828</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P17">
-        <v>0.1189311950344828</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q17">
-        <v>172.8857941071763</v>
+        <v>90.08273348029199</v>
       </c>
       <c r="R17">
-        <v>1555.972146964586</v>
+        <v>810.744601322628</v>
       </c>
       <c r="S17">
-        <v>0.006007733484460158</v>
+        <v>0.003205981934124026</v>
       </c>
       <c r="T17">
-        <v>0.006007733484460158</v>
+        <v>0.003205981934124026</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>81.28845566666666</v>
+        <v>14.467164</v>
       </c>
       <c r="H18">
-        <v>243.865367</v>
+        <v>43.401492</v>
       </c>
       <c r="I18">
-        <v>0.2821345773094156</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="J18">
-        <v>0.2821345773094157</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.389838666666667</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N18">
-        <v>10.169516</v>
+        <v>253.51133</v>
       </c>
       <c r="O18">
-        <v>0.03393930434450847</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P18">
-        <v>0.03393930434450847</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q18">
-        <v>275.5547501724858</v>
+        <v>1222.52999565604</v>
       </c>
       <c r="R18">
-        <v>2479.992751552372</v>
+        <v>11002.76996090436</v>
       </c>
       <c r="S18">
-        <v>0.009575451285413509</v>
+        <v>0.04350899366142639</v>
       </c>
       <c r="T18">
-        <v>0.009575451285413511</v>
+        <v>0.04350899366142639</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>81.28845566666666</v>
+        <v>14.467164</v>
       </c>
       <c r="H19">
-        <v>243.865367</v>
+        <v>43.401492</v>
       </c>
       <c r="I19">
-        <v>0.2821345773094156</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="J19">
-        <v>0.2821345773094157</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.50377666666667</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N19">
-        <v>253.51133</v>
+        <v>6.342281</v>
       </c>
       <c r="O19">
-        <v>0.8460577852132902</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P19">
-        <v>0.8460577852132902</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q19">
-        <v>6869.181503234235</v>
+        <v>30.584939787028</v>
       </c>
       <c r="R19">
-        <v>61822.63352910811</v>
+        <v>275.264458083252</v>
       </c>
       <c r="S19">
-        <v>0.238702155610492</v>
+        <v>0.001088496769860286</v>
       </c>
       <c r="T19">
-        <v>0.238702155610492</v>
+        <v>0.001088496769860286</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>81.28845566666666</v>
+        <v>14.467164</v>
       </c>
       <c r="H20">
-        <v>243.865367</v>
+        <v>43.401492</v>
       </c>
       <c r="I20">
-        <v>0.2821345773094156</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="J20">
-        <v>0.2821345773094157</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1070423333333334</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N20">
-        <v>0.3211270000000001</v>
+        <v>31.258876</v>
       </c>
       <c r="O20">
-        <v>0.001071715407718418</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P20">
-        <v>0.001071715407718417</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q20">
-        <v>8.701305967623224</v>
+        <v>150.742428515888</v>
       </c>
       <c r="R20">
-        <v>78.311753708609</v>
+        <v>1356.681856642992</v>
       </c>
       <c r="S20">
-        <v>0.0003023679735526238</v>
+        <v>0.0053648183603759</v>
       </c>
       <c r="T20">
-        <v>0.0003023679735526238</v>
+        <v>0.0053648183603759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.467164</v>
+      </c>
+      <c r="H21">
+        <v>43.401492</v>
+      </c>
+      <c r="I21">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="J21">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3129456666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.9388369999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="P21">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="Q21">
+        <v>4.527436282755999</v>
+      </c>
+      <c r="R21">
+        <v>40.746926544804</v>
+      </c>
+      <c r="S21">
+        <v>0.000161128313602838</v>
+      </c>
+      <c r="T21">
+        <v>0.000161128313602838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="H22">
+        <v>217.04177</v>
+      </c>
+      <c r="I22">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="J22">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.226703000000001</v>
+      </c>
+      <c r="N22">
+        <v>18.680109</v>
+      </c>
+      <c r="O22">
+        <v>0.06011657340118533</v>
+      </c>
+      <c r="P22">
+        <v>0.06011657340118533</v>
+      </c>
+      <c r="Q22">
+        <v>450.4848801281034</v>
+      </c>
+      <c r="R22">
+        <v>4054.363921152931</v>
+      </c>
+      <c r="S22">
+        <v>0.01603244408211363</v>
+      </c>
+      <c r="T22">
+        <v>0.01603244408211363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="H23">
+        <v>217.04177</v>
+      </c>
+      <c r="I23">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="J23">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N23">
+        <v>253.51133</v>
+      </c>
+      <c r="O23">
+        <v>0.8158535090976781</v>
+      </c>
+      <c r="P23">
+        <v>0.8158535090976781</v>
+      </c>
+      <c r="Q23">
+        <v>6113.616419806011</v>
+      </c>
+      <c r="R23">
+        <v>55022.54777825411</v>
+      </c>
+      <c r="S23">
+        <v>0.2175793632899709</v>
+      </c>
+      <c r="T23">
+        <v>0.2175793632899709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="H24">
+        <v>217.04177</v>
+      </c>
+      <c r="I24">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="J24">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.114093666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.342281</v>
+      </c>
+      <c r="O24">
+        <v>0.02041081244587187</v>
+      </c>
+      <c r="P24">
+        <v>0.02041081244587187</v>
+      </c>
+      <c r="Q24">
+        <v>152.9488771197078</v>
+      </c>
+      <c r="R24">
+        <v>1376.53989407737</v>
+      </c>
+      <c r="S24">
+        <v>0.005443344334101675</v>
+      </c>
+      <c r="T24">
+        <v>0.005443344334101675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>81.28845566666666</v>
-      </c>
-      <c r="H21">
-        <v>243.865367</v>
-      </c>
-      <c r="I21">
-        <v>0.2821345773094156</v>
-      </c>
-      <c r="J21">
-        <v>0.2821345773094157</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.878781</v>
-      </c>
-      <c r="N21">
-        <v>35.636343</v>
-      </c>
-      <c r="O21">
-        <v>0.1189311950344828</v>
-      </c>
-      <c r="P21">
-        <v>0.1189311950344828</v>
-      </c>
-      <c r="Q21">
-        <v>965.6077626925421</v>
-      </c>
-      <c r="R21">
-        <v>8690.46986423288</v>
-      </c>
-      <c r="S21">
-        <v>0.03355460243995748</v>
-      </c>
-      <c r="T21">
-        <v>0.03355460243995748</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="H25">
+        <v>217.04177</v>
+      </c>
+      <c r="I25">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="J25">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.41962533333333</v>
+      </c>
+      <c r="N25">
+        <v>31.258876</v>
+      </c>
+      <c r="O25">
+        <v>0.1005977274272088</v>
+      </c>
+      <c r="P25">
+        <v>0.1005977274272088</v>
+      </c>
+      <c r="Q25">
+        <v>753.8313083611689</v>
+      </c>
+      <c r="R25">
+        <v>6784.481775250521</v>
+      </c>
+      <c r="S25">
+        <v>0.02682833282930649</v>
+      </c>
+      <c r="T25">
+        <v>0.0268283328293065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="H26">
+        <v>217.04177</v>
+      </c>
+      <c r="I26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="J26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3129456666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.9388369999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="P26">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="Q26">
+        <v>22.64076046905444</v>
+      </c>
+      <c r="R26">
+        <v>203.76684422149</v>
+      </c>
+      <c r="S26">
+        <v>0.0008057689441062313</v>
+      </c>
+      <c r="T26">
+        <v>0.0008057689441062315</v>
       </c>
     </row>
   </sheetData>
